--- a/certificates/ANM-173123873-D.xlsx
+++ b/certificates/ANM-173123873-D.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pawan Kumar\work\uphrh-ecred-sp10\certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404CC4D2-C00C-4D4D-92D9-1CE27216192A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C70061-E530-4C9E-B696-BB2FEB3573D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>Certificate No. : 63006</t>
   </si>
@@ -307,6 +307,24 @@
       </rPr>
       <t xml:space="preserve"> has passed the examina on of</t>
     </r>
+  </si>
+  <si>
+    <t>Connectivity of Kafka with notification ms</t>
+  </si>
+  <si>
+    <t>Generate credentials</t>
+  </si>
+  <si>
+    <t>Generate credentials link</t>
+  </si>
+  <si>
+    <t>notification service testing</t>
+  </si>
+  <si>
+    <t>send the credentials to User</t>
+  </si>
+  <si>
+    <t>Testing and bug fixing</t>
   </si>
 </sst>
 </file>
@@ -398,13 +416,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,26 +786,26 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -890,7 +908,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -899,34 +917,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1025,12 +1043,48 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="34.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>